--- a/nmadb/481109.xlsx
+++ b/nmadb/481109.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">t2 </t>
   </si>
   <si>
-    <t>Effect size and standard error for individual FDA-registered studies according</t>
-  </si>
-  <si>
     <t>bupropion SR</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>SCT-MD-01</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>SCT-MD-02</t>
   </si>
   <si>
@@ -250,20 +244,49 @@
     <t>600A-313</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Paroxetine</t>
   </si>
   <si>
     <t>venlafaxine CR</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effect=MD</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect size and standard error </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for individual FDA-registered studies according</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,14 +467,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -469,7 +492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +566,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -578,7 +600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,14 +775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="5" customWidth="1"/>
@@ -777,7 +798,7 @@
     <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -797,7 +818,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H1" s="11"/>
       <c r="J1" s="18" t="s">
@@ -807,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="17">
         <v>1998</v>
       </c>
@@ -830,12 +851,12 @@
         <v>0.1325076</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="16">
         <v>205</v>
@@ -859,9 +880,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="16">
         <v>212</v>
@@ -883,12 +904,12 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="17">
         <v>1999</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="16">
         <v>4</v>
@@ -910,7 +931,7 @@
       </c>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="8" customFormat="1">
       <c r="A6" s="17">
         <v>1999</v>
       </c>
@@ -940,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="17">
         <v>1992</v>
       </c>
@@ -966,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="17">
         <v>1992</v>
       </c>
@@ -995,12 +1016,12 @@
         <v>3</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="16">
         <v>89306</v>
@@ -1024,15 +1045,15 @@
         <v>4</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="17">
         <v>2004</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="16">
         <v>9</v>
@@ -1053,15 +1074,15 @@
         <v>5</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="17">
         <v>2004</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="16">
         <v>10</v>
@@ -1082,15 +1103,15 @@
         <v>6</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="17">
         <v>2002</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="16">
         <v>11</v>
@@ -1111,15 +1132,15 @@
         <v>7</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="17">
         <v>2002</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="16">
         <v>12</v>
@@ -1140,15 +1161,15 @@
         <v>8</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="17">
         <v>2002</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="16">
         <v>13</v>
@@ -1169,15 +1190,15 @@
         <v>9</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="17">
         <v>2006</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="16">
         <v>14</v>
@@ -1198,15 +1219,15 @@
         <v>10</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="16">
         <v>15</v>
@@ -1227,15 +1248,15 @@
         <v>11</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="16">
         <v>16</v>
@@ -1256,10 +1277,10 @@
         <v>12</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="17">
         <v>2002</v>
       </c>
@@ -1285,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="17">
         <v>2003</v>
       </c>
@@ -1311,12 +1332,12 @@
         <v>0.1144804</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="17">
         <v>2002</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16">
         <v>19</v>
@@ -1333,13 +1354,16 @@
       <c r="G20" s="16">
         <v>0.1134438</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="16">
         <v>20</v>
@@ -1357,7 +1381,7 @@
         <v>0.12691459999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="17">
         <v>1985</v>
       </c>
@@ -1380,7 +1404,7 @@
         <v>0.30637009999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="17">
         <v>1985</v>
       </c>
@@ -1403,12 +1427,12 @@
         <v>0.1084808</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="17">
         <v>1990</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16">
         <v>23</v>
@@ -1426,12 +1450,12 @@
         <v>0.15618950000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="17">
         <v>1987</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="16">
         <v>24</v>
@@ -1449,7 +1473,7 @@
         <v>0.14530170000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="17">
         <v>1986</v>
       </c>
@@ -1472,12 +1496,12 @@
         <v>0.31267270000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="16">
         <v>26</v>
@@ -1495,12 +1519,12 @@
         <v>0.22978000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="17">
         <v>1995</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="16">
         <v>27</v>
@@ -1518,12 +1542,12 @@
         <v>0.2204361</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="17">
         <v>1995</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="16">
         <v>28</v>
@@ -1541,12 +1565,12 @@
         <v>0.2056916</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="17">
         <v>1995</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16">
         <v>29</v>
@@ -1564,12 +1588,12 @@
         <v>0.2049088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="17">
         <v>1990</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="16">
         <v>30</v>
@@ -1587,7 +1611,7 @@
         <v>0.2056192</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="17">
         <v>1995</v>
       </c>
@@ -1610,7 +1634,7 @@
         <v>0.17955979999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="17">
         <v>1994</v>
       </c>
@@ -1633,12 +1657,12 @@
         <v>0.21134410000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="16">
         <v>33</v>
@@ -1656,12 +1680,12 @@
         <v>0.2083517</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="16">
         <v>34</v>
@@ -1679,12 +1703,12 @@
         <v>0.21110119999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="16">
         <v>35</v>
@@ -1702,12 +1726,12 @@
         <v>0.21773609999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="17">
         <v>1994</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="16">
         <v>36</v>
@@ -1725,12 +1749,12 @@
         <v>0.2149076</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="17">
         <v>1995</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="16">
         <v>37</v>
@@ -1748,12 +1772,12 @@
         <v>0.16318050000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="17">
         <v>1994</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="16">
         <v>38</v>
@@ -1771,12 +1795,12 @@
         <v>0.15182689999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="17">
         <v>1996</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="16">
         <v>39</v>
@@ -1794,12 +1818,12 @@
         <v>0.15934599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="16">
         <v>40</v>
@@ -1817,12 +1841,12 @@
         <v>0.2138671</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="16">
         <v>41</v>
@@ -1840,12 +1864,12 @@
         <v>0.16174540000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="17">
         <v>1989</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="16">
         <v>42</v>
@@ -1863,12 +1887,12 @@
         <v>0.20021890000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="17">
         <v>1989</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="16">
         <v>43</v>
@@ -1886,12 +1910,12 @@
         <v>0.2444405</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="17">
         <v>1992</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="16">
         <v>44</v>
@@ -1909,12 +1933,12 @@
         <v>0.25723119999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="17">
         <v>1989</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="16">
         <v>45</v>
@@ -1932,12 +1956,12 @@
         <v>0.2354977</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="17">
         <v>1992</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="16">
         <v>46</v>
@@ -1955,12 +1979,12 @@
         <v>0.2359282</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="17">
         <v>1989</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="16">
         <v>47</v>
@@ -1978,12 +2002,12 @@
         <v>0.22606090000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="17">
         <v>1992</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="16">
         <v>48</v>
@@ -2001,12 +2025,12 @@
         <v>0.23824919999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="17">
         <v>1990</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="16">
         <v>49</v>
@@ -2024,12 +2048,12 @@
         <v>0.224549</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="16">
         <v>50</v>
@@ -2047,12 +2071,12 @@
         <v>0.2223752</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="17">
         <v>1992</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="16">
         <v>51</v>
@@ -2070,12 +2094,12 @@
         <v>0.24716050000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="16">
         <v>52</v>
@@ -2093,9 +2117,9 @@
         <v>0.29118440000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="16">
         <v>7</v>
@@ -2116,9 +2140,9 @@
         <v>0.40416530000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="16">
         <v>9</v>
@@ -2139,12 +2163,12 @@
         <v>0.15148</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="16">
         <v>55</v>
@@ -2162,12 +2186,12 @@
         <v>0.29976999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="5">
         <v>1993</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="16">
         <v>56</v>
@@ -2185,12 +2209,12 @@
         <v>0.31755030000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="16">
         <v>57</v>
@@ -2208,7 +2232,7 @@
         <v>0.39389210000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="17">
         <v>2003</v>
       </c>
@@ -2231,15 +2255,15 @@
         <v>0.13925489999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="17">
         <v>2002</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" s="16">
         <v>10</v>
@@ -2254,7 +2278,7 @@
         <v>0.1127551</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="17">
         <v>1990</v>
       </c>
@@ -2277,7 +2301,7 @@
         <v>0.1196923</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="17">
         <v>1995</v>
       </c>
@@ -2300,9 +2324,9 @@
         <v>0.1247663</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" s="16">
         <v>315</v>
@@ -2323,9 +2347,9 @@
         <v>0.16456680000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="16">
         <v>101</v>
@@ -2346,9 +2370,9 @@
         <v>0.2407849</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" s="16">
         <v>310</v>
@@ -2369,12 +2393,12 @@
         <v>0.20534469999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="17">
         <v>1998</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" s="16">
         <v>66</v>
@@ -2392,12 +2416,12 @@
         <v>0.1247038</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="17">
         <v>1995</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" s="16">
         <v>67</v>
@@ -2415,12 +2439,12 @@
         <v>0.2117928</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="17">
         <v>1994</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="16">
         <v>68</v>
@@ -2438,12 +2462,12 @@
         <v>0.1725341</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="17">
         <v>1994</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="16">
         <v>69</v>
@@ -2461,12 +2485,12 @@
         <v>0.17164889999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" s="16">
         <v>70</v>
@@ -2484,12 +2508,12 @@
         <v>0.16490740000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="17">
         <v>1993</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" s="16">
         <v>71</v>
@@ -2507,7 +2531,7 @@
         <v>0.14198749999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="17">
         <v>1997</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>0.1532319</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="17">
         <v>1997</v>
       </c>
@@ -2553,9 +2577,9 @@
         <v>0.14743310000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B74" s="16">
         <v>367</v>
@@ -2588,12 +2612,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2605,12 +2629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
